--- a/data/536/BIDN/SDDS/old/GGOVOP.xlsx
+++ b/data/536/BIDN/SDDS/old/GGOVOP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSta\Yaman\66 Backup SDDS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yamani_s.p\Downloads\SDDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="General Government Operations" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'General Government Operations'!$D$4:$J$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'General Government Operations'!$D$4:$J$38</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -117,28 +117,28 @@
     <t>2017 r</t>
   </si>
   <si>
-    <t>2019 **</t>
-  </si>
-  <si>
-    <t>2018 *</t>
-  </si>
-  <si>
-    <t>Last Update  :  30/11/2020</t>
-  </si>
-  <si>
-    <t>1. The 2018 figures are being reviewed and there is a possibility that they will be revised</t>
-  </si>
-  <si>
-    <t>2. The 2019 figures are very preliminary figures</t>
+    <t>2020 **</t>
+  </si>
+  <si>
+    <t>Last Update  :  30/11/2021</t>
+  </si>
+  <si>
+    <t>2019 *</t>
+  </si>
+  <si>
+    <t>1. The 2019 figures are being reviewed and there is a possibility that they will be revised</t>
+  </si>
+  <si>
+    <t>2. The 2020 figures are very preliminary figures</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="34" x14ac:knownFonts="1">
     <font>
@@ -849,9 +849,9 @@
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -888,8 +888,8 @@
     <xf numFmtId="0" fontId="24" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1366,11 +1366,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
+      <pane ySplit="7" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1973,8 +1973,8 @@
       </c>
     </row>
     <row r="30" spans="4:10" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="20" t="s">
-        <v>32</v>
+      <c r="D30" s="20">
+        <v>2018</v>
       </c>
       <c r="E30" s="18">
         <v>2214097.0794398701</v>
@@ -1997,106 +1997,129 @@
     </row>
     <row r="31" spans="4:10" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D31" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="18">
+        <v>2259030.0064757299</v>
+      </c>
+      <c r="F31" s="18">
+        <v>2596507.5713504599</v>
+      </c>
+      <c r="G31" s="18">
+        <v>-337477.56487473199</v>
+      </c>
+      <c r="H31" s="18">
+        <v>496366.26868550899</v>
+      </c>
+      <c r="I31" s="18">
+        <v>507265.85164981999</v>
+      </c>
+      <c r="J31" s="18">
+        <v>-10899.582964310999</v>
+      </c>
+    </row>
+    <row r="32" spans="4:10" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="18">
-        <v>2261872.0313776499</v>
-      </c>
-      <c r="F31" s="18">
-        <v>2598925.3949662</v>
-      </c>
-      <c r="G31" s="18">
-        <v>-337053.36358854698</v>
-      </c>
-      <c r="H31" s="18">
-        <v>490355.89897056599</v>
-      </c>
-      <c r="I31" s="18">
-        <v>504528.31511605397</v>
-      </c>
-      <c r="J31" s="18">
-        <v>-14172.416145488</v>
-      </c>
-    </row>
-    <row r="32" spans="4:10" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D32" s="9"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-    </row>
-    <row r="33" spans="4:10" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D33" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="4:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-    </row>
-    <row r="35" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D35" s="12" t="s">
+      <c r="E32" s="18">
+        <v>2121037.1287261401</v>
+      </c>
+      <c r="F32" s="18">
+        <v>3148121.4933287599</v>
+      </c>
+      <c r="G32" s="18">
+        <v>-1027084.36460263</v>
+      </c>
+      <c r="H32" s="18">
+        <v>1360871.2961900199</v>
+      </c>
+      <c r="I32" s="18">
+        <v>1314150.72259263</v>
+      </c>
+      <c r="J32" s="18">
+        <v>46720.573597388</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+    </row>
+    <row r="34" spans="4:10" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D34" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+    </row>
+    <row r="35" spans="4:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+    </row>
+    <row r="36" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D36" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D36" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D37" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
+      <c r="D37" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D38" s="1" t="s">
-        <v>18</v>
-      </c>
+    <row r="38" spans="4:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D38" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
     </row>
     <row r="39" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D39" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D40" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D41" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D42" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2105,7 +2128,7 @@
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="D35:J35"/>
     <mergeCell ref="D4:J4"/>
     <mergeCell ref="D5:J5"/>
     <mergeCell ref="D6:D7"/>
@@ -2113,7 +2136,7 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
-    <mergeCell ref="D33:J33"/>
+    <mergeCell ref="D34:J34"/>
     <mergeCell ref="I6:I7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
